--- a/data_excel/866.xlsx
+++ b/data_excel/866.xlsx
@@ -117,13 +117,14 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +498,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -666,16 +667,16 @@
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>

--- a/data_excel/866.xlsx
+++ b/data_excel/866.xlsx
@@ -48,9 +48,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>特點</t>
-  </si>
-  <si>
     <t>幾</t>
   </si>
   <si>
@@ -125,6 +122,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +499,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,7 +524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -543,157 +544,157 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
